--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H2">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I2">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J2">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>0.73287668062</v>
+        <v>0.8381859325864442</v>
       </c>
       <c r="R2">
-        <v>6.59589012558</v>
+        <v>7.543673393277999</v>
       </c>
       <c r="S2">
-        <v>6.554658974757219E-05</v>
+        <v>8.258247752680754E-05</v>
       </c>
       <c r="T2">
-        <v>6.554658974757217E-05</v>
+        <v>8.258247752680756E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H3">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I3">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J3">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>0.614686984047111</v>
+        <v>0.569455136355111</v>
       </c>
       <c r="R3">
-        <v>5.532182856423999</v>
+        <v>5.125096227196</v>
       </c>
       <c r="S3">
-        <v>5.497600978710812E-05</v>
+        <v>5.610570897492492E-05</v>
       </c>
       <c r="T3">
-        <v>5.497600978710811E-05</v>
+        <v>5.610570897492494E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H4">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I4">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J4">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>3.864234723804</v>
+        <v>1.866758048954333</v>
       </c>
       <c r="R4">
-        <v>34.77811251423599</v>
+        <v>16.800822440589</v>
       </c>
       <c r="S4">
-        <v>0.0003456071325877462</v>
+        <v>0.0001839228011737828</v>
       </c>
       <c r="T4">
-        <v>0.0003456071325877461</v>
+        <v>0.0001839228011737828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H5">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I5">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J5">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>105.2321709606082</v>
+        <v>89.49739323231789</v>
       </c>
       <c r="R5">
-        <v>947.0895386454739</v>
+        <v>805.476539090861</v>
       </c>
       <c r="S5">
-        <v>0.009411692472417211</v>
+        <v>0.008817752932823775</v>
       </c>
       <c r="T5">
-        <v>0.009411692472417209</v>
+        <v>0.008817752932823776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,43 +788,43 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H6">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I6">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J6">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>71.69904799025002</v>
+        <v>88.51509836957221</v>
       </c>
       <c r="R6">
-        <v>645.2914319122501</v>
+        <v>796.6358853261499</v>
       </c>
       <c r="S6">
-        <v>0.006412576915303964</v>
+        <v>0.008720972087102499</v>
       </c>
       <c r="T6">
-        <v>0.006412576915303962</v>
+        <v>0.008720972087102499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H7">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I7">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J7">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
         <v>60.13627221825556</v>
       </c>
       <c r="R7">
-        <v>541.2264499642999</v>
+        <v>541.2264499643001</v>
       </c>
       <c r="S7">
-        <v>0.005378432235971394</v>
+        <v>0.005924941180634637</v>
       </c>
       <c r="T7">
-        <v>0.005378432235971392</v>
+        <v>0.005924941180634637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H8">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I8">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J8">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>378.04716432405</v>
+        <v>197.1355828240917</v>
       </c>
       <c r="R8">
-        <v>3402.42447891645</v>
+        <v>1774.220245416825</v>
       </c>
       <c r="S8">
-        <v>0.03381155798847134</v>
+        <v>0.01942283233991841</v>
       </c>
       <c r="T8">
-        <v>0.03381155798847132</v>
+        <v>0.01942283233991841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H9">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I9">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J9">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>10295.11059001069</v>
+        <v>9451.209162308271</v>
       </c>
       <c r="R9">
-        <v>92655.99531009619</v>
+        <v>85060.88246077443</v>
       </c>
       <c r="S9">
-        <v>0.920767992888572</v>
+        <v>0.9311827339299624</v>
       </c>
       <c r="T9">
-        <v>0.9207679928885718</v>
+        <v>0.9311827339299624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H10">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I10">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J10">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>1.72986111884</v>
+        <v>2.290470522507777</v>
       </c>
       <c r="R10">
-        <v>15.56875006956</v>
+        <v>20.61423470256999</v>
       </c>
       <c r="S10">
-        <v>0.0001547142924249669</v>
+        <v>0.0002256691780392125</v>
       </c>
       <c r="T10">
-        <v>0.0001547142924249668</v>
+        <v>0.0002256691780392125</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H11">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I11">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J11">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>1.450889545374222</v>
+        <v>1.556122756304444</v>
       </c>
       <c r="R11">
-        <v>13.058005908368</v>
+        <v>14.00510480674</v>
       </c>
       <c r="S11">
-        <v>0.000129763798350402</v>
+        <v>0.0001533173816875198</v>
       </c>
       <c r="T11">
-        <v>0.000129763798350402</v>
+        <v>0.0001533173816875198</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H12">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I12">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J12">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>9.121028925528</v>
+        <v>5.101200243948333</v>
       </c>
       <c r="R12">
-        <v>82.08926032975199</v>
+        <v>45.91080219553499</v>
       </c>
       <c r="S12">
-        <v>0.0008157611735599925</v>
+        <v>0.0005025970230801526</v>
       </c>
       <c r="T12">
-        <v>0.000815761173559992</v>
+        <v>0.0005025970230801526</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H13">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I13">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J13">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>248.3870012644965</v>
+        <v>244.5652367456906</v>
       </c>
       <c r="R13">
-        <v>2235.483011380468</v>
+        <v>2201.087130711215</v>
       </c>
       <c r="S13">
-        <v>0.02221508925176919</v>
+        <v>0.02409585079180079</v>
       </c>
       <c r="T13">
-        <v>0.02221508925176918</v>
+        <v>0.02409585079180079</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H14">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I14">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J14">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>0.03237011271</v>
+        <v>0.05783822751244445</v>
       </c>
       <c r="R14">
-        <v>0.29133101439</v>
+        <v>0.520544047612</v>
       </c>
       <c r="S14">
-        <v>2.895098935458119E-06</v>
+        <v>5.698525754301204E-06</v>
       </c>
       <c r="T14">
-        <v>2.895098935458119E-06</v>
+        <v>5.698525754301204E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H15">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I15">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J15">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>0.02714984318799999</v>
+        <v>0.03929471308711112</v>
       </c>
       <c r="R15">
-        <v>0.2443485886919999</v>
+        <v>0.3536524177840001</v>
       </c>
       <c r="S15">
-        <v>2.428211567121036E-06</v>
+        <v>3.871521382404057E-06</v>
       </c>
       <c r="T15">
-        <v>2.428211567121035E-06</v>
+        <v>3.871521382404057E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H16">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I16">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J16">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>0.170677709982</v>
+        <v>0.1288138735673333</v>
       </c>
       <c r="R16">
-        <v>1.536099389838</v>
+        <v>1.159324862106</v>
       </c>
       <c r="S16">
-        <v>1.526497176275411E-05</v>
+        <v>1.269141893874273E-05</v>
       </c>
       <c r="T16">
-        <v>1.52649717627541E-05</v>
+        <v>1.269141893874273E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H17">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I17">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J17">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>4.647954184912999</v>
+        <v>6.17568297235489</v>
       </c>
       <c r="R17">
-        <v>41.831587664217</v>
+        <v>55.58114675119401</v>
       </c>
       <c r="S17">
-        <v>0.0004157009687718117</v>
+        <v>0.0006084607011995968</v>
       </c>
       <c r="T17">
-        <v>0.0004157009687718117</v>
+        <v>0.0006084607011995968</v>
       </c>
     </row>
   </sheetData>
